--- a/Documentation/MSYSADD1/PROPOSE/Use_Case_Full_Description_Student_Propose.xlsx
+++ b/Documentation/MSYSADD1/PROPOSE/Use_Case_Full_Description_Student_Propose.xlsx
@@ -5,22 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\3RD YEAR\3rd year 1st term\MSYADD1\LSC-LMS\Proposed System\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\Videos\Project---LSC-2\Documentation\MSYSADD1\PROPOSE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Use Case F.D. (Student)1" sheetId="1" r:id="rId1"/>
-    <sheet name="Use Case F.D. (Student)2" sheetId="2" r:id="rId2"/>
-    <sheet name="Use Case F.D. (Student)3" sheetId="3" r:id="rId3"/>
-    <sheet name="Use Case F.D. (Student)4" sheetId="4" r:id="rId4"/>
-    <sheet name="Use Case F.D. (Student)5" sheetId="5" r:id="rId5"/>
-    <sheet name="Use Case F.D. (Student)6" sheetId="6" r:id="rId6"/>
-    <sheet name="Use Case F.D. (Student)7" sheetId="7" r:id="rId7"/>
-    <sheet name="Use Case F.D. (Student)8" sheetId="8" r:id="rId8"/>
-    <sheet name="Use Case F.D. (Student)9" sheetId="9" r:id="rId9"/>
+    <sheet name="Use Case F.D. (Student)1" sheetId="2" r:id="rId1"/>
+    <sheet name="Use Case F.D. (Student)2" sheetId="3" r:id="rId2"/>
+    <sheet name="Use Case F.D. (Student)3" sheetId="4" r:id="rId3"/>
+    <sheet name="Use Case F.D. (Student)4" sheetId="5" r:id="rId4"/>
+    <sheet name="Use Case F.D. (Student)5" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -32,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="29">
   <si>
     <t>USE CASE FULL DESCRIPTION</t>
   </si>
@@ -73,103 +69,52 @@
     <t>System</t>
   </si>
   <si>
-    <t>Signs in the admin</t>
-  </si>
-  <si>
     <t>Look up for the schedule of the student</t>
   </si>
   <si>
     <t>Look up for the list of task of students</t>
   </si>
   <si>
-    <t>Records student activity</t>
-  </si>
-  <si>
-    <t>Look up for the summary of grades</t>
-  </si>
-  <si>
-    <t>Look up for the student's attendance</t>
-  </si>
-  <si>
-    <t>Sends message to destination</t>
-  </si>
-  <si>
     <t>Updates profile information</t>
   </si>
   <si>
-    <t>Signs out student</t>
-  </si>
-  <si>
-    <t>Student signs in</t>
-  </si>
-  <si>
-    <t>Sign in request</t>
-  </si>
-  <si>
     <t>Student</t>
   </si>
   <si>
-    <t>1. Student must have an account</t>
-  </si>
-  <si>
-    <t>1. Student is already signed in</t>
-  </si>
-  <si>
-    <t>Precondition(s):</t>
-  </si>
-  <si>
-    <t>Postcondition(s):</t>
-  </si>
-  <si>
-    <t>Flow of Activities:</t>
-  </si>
-  <si>
     <t>Student checks schedule</t>
   </si>
   <si>
     <t>Schedule inquiry</t>
   </si>
   <si>
-    <t>Student checks calendar</t>
-  </si>
-  <si>
     <t>List of task inquiry</t>
   </si>
   <si>
-    <t>Studen takes exercise/homework</t>
-  </si>
-  <si>
-    <t>take exercise/homework request</t>
-  </si>
-  <si>
-    <t>Student checks grade</t>
-  </si>
-  <si>
     <t>Grades inquiry</t>
   </si>
   <si>
-    <t>Student checks attendance</t>
-  </si>
-  <si>
-    <t>Summary of attendance inquiry</t>
-  </si>
-  <si>
     <t>Student sends message</t>
   </si>
   <si>
-    <t>Send message request</t>
-  </si>
-  <si>
     <t>Student updates the profile information</t>
   </si>
   <si>
     <t>Profile information change request</t>
   </si>
   <si>
-    <t>Student logs out</t>
-  </si>
-  <si>
-    <t>Sign out request</t>
+    <t>Student checks calendar and take task</t>
+  </si>
+  <si>
+    <t>Look up for the grades</t>
+  </si>
+  <si>
+    <t>Student checks grades and attendance</t>
+  </si>
+  <si>
+    <t>Send message to destination</t>
+  </si>
+  <si>
+    <t>send message request</t>
   </si>
 </sst>
 </file>
@@ -454,7 +399,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -468,52 +413,44 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -523,10 +460,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -824,10 +761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B8" sqref="B8:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -838,218 +775,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="13"/>
+      <c r="C2" s="16"/>
     </row>
     <row r="3" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="6"/>
+      <c r="B3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="18"/>
     </row>
     <row r="4" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="6"/>
+      <c r="B4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="18"/>
     </row>
     <row r="5" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="6"/>
+      <c r="B5" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="18"/>
     </row>
     <row r="6" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="18"/>
     </row>
     <row r="7" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="17"/>
-    </row>
-    <row r="9" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="17"/>
-    </row>
-    <row r="10" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="24"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
-    </row>
-    <row r="12" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
-    </row>
-    <row r="13" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="22"/>
-    </row>
-    <row r="14" spans="1:3" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-    </row>
-    <row r="15" spans="1:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A10:A13"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="22.375" customWidth="1"/>
-    <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="23.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
-    </row>
-    <row r="2" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="13"/>
-    </row>
-    <row r="3" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
     </row>
     <row r="8" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
     </row>
     <row r="9" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
     </row>
     <row r="10" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -1063,21 +857,21 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
     </row>
     <row r="12" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
     </row>
     <row r="13" spans="1:3" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
     </row>
     <row r="14" spans="1:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -1098,12 +892,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1114,78 +908,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="13"/>
+      <c r="B2" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="16"/>
     </row>
     <row r="3" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="6"/>
+      <c r="B3" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="18"/>
     </row>
     <row r="4" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="6"/>
+      <c r="B4" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="18"/>
     </row>
     <row r="5" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="6"/>
+      <c r="B5" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="18"/>
     </row>
     <row r="6" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="18"/>
     </row>
     <row r="7" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
     </row>
     <row r="8" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
     </row>
     <row r="9" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
     </row>
     <row r="10" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="19" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1196,21 +990,21 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="24"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="27"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
     </row>
     <row r="12" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="27"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
     </row>
     <row r="13" spans="1:3" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
     </row>
     <row r="14" spans="1:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -1232,7 +1026,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -1248,75 +1042,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="13"/>
+      <c r="B2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="16"/>
     </row>
     <row r="3" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="15"/>
+      <c r="B3" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="23"/>
     </row>
     <row r="4" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="6"/>
+      <c r="B4" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="18"/>
     </row>
     <row r="5" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="6"/>
+      <c r="B5" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="18"/>
     </row>
     <row r="6" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="18"/>
     </row>
     <row r="7" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
     </row>
     <row r="8" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
     </row>
     <row r="9" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
     </row>
     <row r="10" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -1333,8 +1127,131 @@
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+    </row>
+    <row r="12" spans="1:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.375" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="23.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14"/>
+    </row>
+    <row r="2" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="16"/>
+    </row>
+    <row r="3" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="18"/>
+    </row>
+    <row r="4" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="18"/>
+    </row>
+    <row r="5" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="18"/>
+    </row>
+    <row r="6" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="18"/>
+    </row>
+    <row r="7" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
+    </row>
+    <row r="8" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+    </row>
+    <row r="9" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+    </row>
+    <row r="10" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
     </row>
     <row r="12" spans="1:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -1359,498 +1276,6 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="22.375" customWidth="1"/>
-    <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="23.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
-    </row>
-    <row r="2" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="13"/>
-    </row>
-    <row r="3" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-    </row>
-    <row r="12" spans="1:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="22.375" customWidth="1"/>
-    <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="23.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
-    </row>
-    <row r="2" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="13"/>
-    </row>
-    <row r="3" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-    </row>
-    <row r="12" spans="1:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="22.375" customWidth="1"/>
-    <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="23.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
-    </row>
-    <row r="2" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="13"/>
-    </row>
-    <row r="3" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-    </row>
-    <row r="12" spans="1:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="22.375" customWidth="1"/>
-    <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="23.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
-    </row>
-    <row r="2" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="13"/>
-    </row>
-    <row r="3" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-    </row>
-    <row r="12" spans="1:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
-  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5:C5"/>
     </sheetView>
@@ -1863,75 +1288,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="13"/>
+      <c r="B2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="16"/>
     </row>
     <row r="3" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="6"/>
+      <c r="B3" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="18"/>
     </row>
     <row r="4" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="6"/>
+      <c r="B4" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="18"/>
     </row>
     <row r="5" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="6"/>
+      <c r="B5" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="18"/>
     </row>
     <row r="6" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="18"/>
     </row>
     <row r="7" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
     </row>
     <row r="8" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
     </row>
     <row r="9" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
     </row>
     <row r="10" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -1948,8 +1373,8 @@
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
     </row>
     <row r="12" spans="1:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
